--- a/data/trans_camb/P1804_2016_2023-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1804_2016_2023-Edad-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.273177786334124</v>
+        <v>-8.483290913111746</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.812342319464409</v>
+        <v>-4.587902525201764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.772940051853199</v>
+        <v>-5.512064297914633</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.08634990961208</v>
+        <v>-2.100648232453478</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.286876974570265</v>
+        <v>5.319042015919556</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1824146256822776</v>
+        <v>0.05406771399706781</v>
       </c>
     </row>
     <row r="7">
@@ -635,10 +635,10 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4964889792554024</v>
+        <v>-0.465979380014651</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6653825806231189</v>
+        <v>-0.6494359751879113</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.07092918075892488</v>
+        <v>-0.06255938952602809</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7338866579683899</v>
+        <v>0.7353373850530811</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.08726521852210198</v>
+        <v>0.03780617633859645</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>2.949339416431992</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6452380106790778</v>
+        <v>0.6452380106790765</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1.903392699070468</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6758667978431421</v>
+        <v>-0.5389365561704598</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.262661646072225</v>
+        <v>-3.233743092147302</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.656645074464173</v>
+        <v>-0.6017853006629185</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.600294804690861</v>
+        <v>7.386285351587293</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.889887963631919</v>
+        <v>4.859705181371083</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.958826473923952</v>
+        <v>5.129363366484623</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>0.6163513459461397</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.06176481309301236</v>
+        <v>0.06176481309301222</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.2521112226233623</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1485892957128453</v>
+        <v>-0.1249890924852347</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2746101304862353</v>
+        <v>-0.2844705804561893</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0834925629313583</v>
+        <v>-0.07617296938108303</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.023693139292009</v>
+        <v>1.897350580553397</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5897274760740667</v>
+        <v>0.5558892107006996</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7336362690324888</v>
+        <v>0.7918732352490222</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>0.8535358113927715</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-1.020466264670322</v>
+        <v>-1.020466264670321</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-0.06684555843100848</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.470212313605252</v>
+        <v>-1.523050129291864</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.078029903211069</v>
+        <v>-4.003428410167338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.709540805619315</v>
+        <v>-1.988693029558445</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.562673960096745</v>
+        <v>3.348051656980476</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.992833657452304</v>
+        <v>1.750970277864742</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.082815271289442</v>
+        <v>1.886987800296268</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +830,7 @@
         <v>0.2211569107636263</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.1133376759429976</v>
+        <v>-0.1133376759429975</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.01041746039814386</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.338282777742059</v>
+        <v>-0.3239408266454289</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3822417005774251</v>
+        <v>-0.3752973808630138</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2399619567892874</v>
+        <v>-0.2621325965410092</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.154139688050248</v>
+        <v>1.240685119173915</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2855457560314345</v>
+        <v>0.2484737814317262</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3646876197176635</v>
+        <v>0.3467275792515179</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>1.855616107361472</v>
+        <v>1.855616107361471</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>1.166661440997348</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.514481909077534</v>
+        <v>1.514481909077535</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.106951065608839</v>
+        <v>-0.8328028197688639</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.512424589429519</v>
+        <v>-1.272341297394197</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1420586605150492</v>
+        <v>-0.5222707818940759</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.58022224016069</v>
+        <v>4.93558863007438</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.461763802091962</v>
+        <v>3.532517221467187</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.695558032082787</v>
+        <v>3.328992751653893</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.3583645082338624</v>
+        <v>0.3583645082338621</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.1872824434822334</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2654681787918955</v>
+        <v>0.2654681787918958</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1810587492764583</v>
+        <v>-0.1567569200079666</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1838501825606553</v>
+        <v>-0.1764451969055149</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.01984985571878255</v>
+        <v>-0.07458022643489724</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.106910759142514</v>
+        <v>1.235465235805268</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7350556726120093</v>
+        <v>0.7506797557943242</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.823496097240668</v>
+        <v>0.6811867142082217</v>
       </c>
     </row>
     <row r="28">
@@ -991,7 +991,7 @@
         <v>-0.758489636914933</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-2.34070489504396</v>
+        <v>-2.340704895043957</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-1.578023187808247</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.223709912781291</v>
+        <v>-4.015285320576438</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.813526791843718</v>
+        <v>-5.557198800470997</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.8955671173144</v>
+        <v>-4.078322811048634</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.560803414427649</v>
+        <v>2.679015260820176</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8543155054325693</v>
+        <v>0.7475907733660752</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8892823290447353</v>
+        <v>0.6340850243454148</v>
       </c>
     </row>
     <row r="31">
@@ -1042,7 +1042,7 @@
         <v>-0.09532781946447691</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.2168729042360133</v>
+        <v>-0.2168729042360131</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.1678327624100192</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4282148492817542</v>
+        <v>-0.3922051891414285</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.445180671761197</v>
+        <v>-0.4342589938401955</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3571886680875335</v>
+        <v>-0.3652522592319354</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4275754512194854</v>
+        <v>0.4781185222462767</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.09634697504579909</v>
+        <v>0.09147743285720798</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1190569515994238</v>
+        <v>0.08268623299211077</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>-2.927460903276477</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-3.338577726112138</v>
+        <v>-3.338577726112141</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-3.145131857347512</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.047634010607687</v>
+        <v>-7.302116609792265</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.487327159173775</v>
+        <v>-7.465279081925506</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-6.076992162015479</v>
+        <v>-6.024510539922403</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.262414030433447</v>
+        <v>0.8618872316865813</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.2933256159005368</v>
+        <v>0.4605347653091205</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.4861426589919755</v>
+        <v>-0.5214488334161839</v>
       </c>
     </row>
     <row r="37">
@@ -1148,7 +1148,7 @@
         <v>-0.262625449347633</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.2897770283020898</v>
+        <v>-0.28977702830209</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.2772149055441663</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5078103816731311</v>
+        <v>-0.5276649137339335</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5078542820590751</v>
+        <v>-0.5280131753156931</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4494187001125226</v>
+        <v>-0.4349538302551024</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1489687675724229</v>
+        <v>0.1044185893486717</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.05120056418464525</v>
+        <v>0.03956133356776466</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.05277331952679926</v>
+        <v>-0.05736738509976135</v>
       </c>
     </row>
     <row r="40">
@@ -1206,7 +1206,7 @@
         <v>-6.913146324754623</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-5.029538305779753</v>
+        <v>-5.029538305779754</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.325842856992494</v>
+        <v>-6.200437893064209</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-11.74421393873185</v>
+        <v>-12.00607223962524</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-8.635031904268121</v>
+        <v>-8.244940220158249</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.605651356020287</v>
+        <v>1.599241631337828</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.602420353476415</v>
+        <v>-2.635162369638406</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.867007788069454</v>
+        <v>-2.151201791669726</v>
       </c>
     </row>
     <row r="43">
@@ -1257,7 +1257,7 @@
         <v>-0.442267495307925</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.3855917337306408</v>
+        <v>-0.3855917337306409</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5388496290643922</v>
+        <v>-0.5296029843598492</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6135954877783223</v>
+        <v>-0.6052562292394286</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5610237766550806</v>
+        <v>-0.5378803712600134</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2543763226347647</v>
+        <v>0.2550719330344884</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.2067044136224978</v>
+        <v>-0.2002750008510213</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1773225163799166</v>
+        <v>-0.1923743489288461</v>
       </c>
     </row>
     <row r="46">
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>-0.1085852915590074</v>
+        <v>-0.1085852915590088</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>-1.40239174323923</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.7633747619532033</v>
+        <v>-0.7633747619532048</v>
       </c>
     </row>
     <row r="47">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.291477466427051</v>
+        <v>-1.40907480363373</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.752699249751227</v>
+        <v>-2.770817681206065</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.712036007379518</v>
+        <v>-1.699141021503497</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.107426262537332</v>
+        <v>1.074790022944455</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.1229214145926038</v>
+        <v>-0.0440092327764405</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.1401695780248991</v>
+        <v>0.06970157186547858</v>
       </c>
     </row>
     <row r="49">
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="C49" s="6" t="n">
-        <v>-0.01724822615795825</v>
+        <v>-0.01724822615795847</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>-0.1412533351233798</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.09365251377809036</v>
+        <v>-0.09365251377809053</v>
       </c>
     </row>
     <row r="50">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1902423893228806</v>
+        <v>-0.2041990039370941</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2561509759102118</v>
+        <v>-0.2582999615678301</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1972668878945052</v>
+        <v>-0.1983708271585776</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1881425976414954</v>
+        <v>0.186363133481439</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.01123874505591579</v>
+        <v>-1.132331735555626e-05</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.01930490416229498</v>
+        <v>0.01030274508968927</v>
       </c>
     </row>
     <row r="52">
